--- a/00.Document/02.프리프로덕션/03.리소스파일/(PD)사운드리스트통합정리문서_180424_지현우ver1.xlsx
+++ b/00.Document/02.프리프로덕션/03.리소스파일/(PD)사운드리스트통합정리문서_180424_지현우ver1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6kigs_18\Desktop\3DProject\00.Document\02.프리프로덕션\03.리소스파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C0E254-C736-45F7-A6CF-9699A5A76CB9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8BD74-A6E9-4A24-B74D-D82E1519B8FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
@@ -544,12 +544,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,23 +577,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -875,18 +875,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="28">
+      <c r="B8" s="19">
         <v>43228</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1007,7 +1007,7 @@
   <dimension ref="B1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1034,66 +1034,66 @@
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="13"/>
     </row>
     <row r="6" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="M6" s="19" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="M6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
@@ -1126,18 +1126,18 @@
       <c r="K7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
@@ -1155,7 +1155,7 @@
       <c r="F8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="17">
         <v>9.0972222222222218E-2</v>
       </c>
       <c r="H8" s="5">
@@ -1170,18 +1170,18 @@
       <c r="K8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
@@ -1199,7 +1199,7 @@
       <c r="F9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="17">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H9" s="5">
@@ -1214,18 +1214,18 @@
       <c r="K9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
@@ -1238,18 +1238,18 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="9"/>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
@@ -1262,18 +1262,18 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="9"/>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
@@ -1313,7 +1313,7 @@
       <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="17">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="H14" s="5">
@@ -1748,19 +1748,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1810,12 +1810,12 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1870,12 +1870,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -1904,7 +1904,7 @@
       <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="18">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="F5" t="s">
@@ -1924,7 +1924,7 @@
       <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="18">
         <v>9.0972222222222218E-2</v>
       </c>
       <c r="F6" t="s">
@@ -1944,7 +1944,7 @@
       <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="18">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F7" t="s">

--- a/00.Document/02.프리프로덕션/03.리소스파일/(PD)사운드리스트통합정리문서_180424_지현우ver1.xlsx
+++ b/00.Document/02.프리프로덕션/03.리소스파일/(PD)사운드리스트통합정리문서_180424_지현우ver1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6kigs_18\Desktop\3DProject\00.Document\02.프리프로덕션\03.리소스파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8BD74-A6E9-4A24-B74D-D82E1519B8FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9240FD3-7D9C-45CE-BFF1-A742D59C3B14}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,70 @@
   </si>
   <si>
     <t>지현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Horror Cinematic Music </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCM Epic Music Ender Guney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터1 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1BGM_BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192kbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1Drawersopen_SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터1 서랍장 오픈 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191.7kbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart_SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가스 게이지 70% 이상 차오를시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411kbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +617,9 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,6 +646,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,18 +945,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1004,16 +1074,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:V47"/>
+  <dimension ref="B1:V48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.75" style="2"/>
-    <col min="3" max="3" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="2" bestFit="1" customWidth="1"/>
@@ -1034,66 +1104,66 @@
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="13"/>
     </row>
     <row r="6" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="M6" s="24" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="M6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
@@ -1126,18 +1196,18 @@
       <c r="K7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
@@ -1170,18 +1240,18 @@
       <c r="K8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
@@ -1214,78 +1284,144 @@
       <c r="K9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="9"/>
-      <c r="M10" s="23" t="s">
+      <c r="C10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="17">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <v>103</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="17">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="9"/>
-      <c r="M11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="17">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
@@ -1301,45 +1437,45 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="17">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="9"/>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
@@ -1713,25 +1849,37 @@
       <c r="J46" s="5"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12"/>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C4:K4"/>
-    <mergeCell ref="M10:V10"/>
     <mergeCell ref="M11:V11"/>
+    <mergeCell ref="M12:V12"/>
     <mergeCell ref="M6:V6"/>
     <mergeCell ref="M7:V7"/>
     <mergeCell ref="M8:V8"/>
@@ -1748,19 +1896,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1810,12 +1958,12 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1856,26 +2004,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="C3:H7"/>
+  <dimension ref="C3:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -1955,6 +2103,26 @@
       </c>
       <c r="H7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="18">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
